--- a/NivelBasico/Módulo 4 - Referencias de Celdas.xlsx
+++ b/NivelBasico/Módulo 4 - Referencias de Celdas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CÁMARA DE COMERCIO EXTERIOR\1. Curso de Excel Profesional\1. Excel Básico\Recursos\Módulo 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Nik Denilson\Cursos\EXCEL\NivelBasico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C31CA0-8846-4B66-8E89-0EB8A1220034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DFD4B-5DE7-452A-BA0F-80B2E76777E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="758" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="14" r:id="rId1"/>
@@ -2797,7 +2797,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -2825,31 +2825,28 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2859,15 +2856,15 @@
     <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
@@ -2888,7 +2885,7 @@
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2936,7 +2933,7 @@
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2950,29 +2947,26 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2984,16 +2978,16 @@
     <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -3087,7 +3081,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3162,62 +3156,44 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="41" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="41" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="41" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="41" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="10" fontId="41" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -3325,7 +3301,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3337,7 +3313,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3447,10 +3423,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="43" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="43" fillId="2" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="43" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="43" fillId="2" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="43" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3466,22 +3442,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="43" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="43" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="43" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="2" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="43" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="23" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="175" fontId="43" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="43" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="23" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="43" fillId="2" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3617,7 +3593,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3873,9 +3849,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3913,9 +3889,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3948,26 +3924,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4000,26 +3959,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4198,8 +4140,8 @@
   </sheetPr>
   <dimension ref="A1:V337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1"/>
@@ -4231,70 +4173,70 @@
     <row r="7" spans="2:17"/>
     <row r="8" spans="2:17"/>
     <row r="9" spans="2:17" ht="2.1" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="11" spans="2:17" ht="49.8" customHeight="1">
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="215" t="s">
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="215" t="s">
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
       <c r="Q11"/>
     </row>
     <row r="12" spans="2:17" ht="4.95" customHeight="1">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="2:17" ht="50.1" customHeight="1">
-      <c r="C13" s="216" t="s">
+      <c r="C13" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="216" t="s">
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="217"/>
-      <c r="L13" s="217"/>
-      <c r="M13" s="217"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="209"/>
+      <c r="M13" s="209"/>
     </row>
     <row r="14" spans="2:17" ht="2.1" customHeight="1">
       <c r="C14" s="5"/>
@@ -4311,19 +4253,19 @@
     </row>
     <row r="15" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="16" spans="2:17" ht="2.1" customHeight="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" ht="2.1" customHeight="1"/>
     <row r="18" ht="30" customHeight="1"/>
@@ -4362,9 +4304,9 @@
   </sheetPr>
   <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4384,38 +4326,38 @@
     <col min="14" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="28" customFormat="1" ht="33.6" customHeight="1">
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="222" t="s">
+    <row r="1" spans="2:17" s="27" customFormat="1" ht="33.6" customHeight="1">
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="2:17" ht="12.75" customHeight="1"/>
     <row r="3" spans="2:17" ht="30" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="94" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="92" t="s">
         <v>202</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4423,145 +4365,178 @@
     </row>
     <row r="4" spans="2:17" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="2:17" ht="37.5" customHeight="1">
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="30" customHeight="1">
-      <c r="D6" s="95">
+      <c r="D6" s="93">
         <v>3</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="95">
         <v>200</v>
       </c>
-      <c r="G6" s="133"/>
+      <c r="G6" s="125">
+        <f>PRODUCT(D6,F6)</f>
+        <v>600</v>
+      </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1">
-      <c r="D7" s="95">
+      <c r="D7" s="93">
         <v>4</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="95">
         <v>100</v>
       </c>
-      <c r="G7" s="133"/>
+      <c r="G7" s="125">
+        <f t="shared" ref="G7:G13" si="0">PRODUCT(D7,F7)</f>
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1">
-      <c r="D8" s="95">
+      <c r="D8" s="93">
         <v>2</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="95">
         <v>60</v>
       </c>
-      <c r="G8" s="133"/>
+      <c r="G8" s="125">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1">
-      <c r="D9" s="95">
+      <c r="D9" s="93">
         <v>3</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="95">
         <v>200</v>
       </c>
-      <c r="G9" s="133"/>
+      <c r="G9" s="125">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1">
-      <c r="D10" s="95">
+      <c r="D10" s="93">
         <v>2</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="95">
         <v>350</v>
       </c>
-      <c r="G10" s="133"/>
+      <c r="G10" s="125">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1">
-      <c r="D11" s="95">
+      <c r="D11" s="93">
         <v>1</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="95">
         <v>2000</v>
       </c>
-      <c r="G11" s="133"/>
+      <c r="G11" s="125">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1">
-      <c r="D12" s="95">
+      <c r="D12" s="93">
         <v>1</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="95">
         <v>650</v>
       </c>
-      <c r="G12" s="133"/>
+      <c r="G12" s="125">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1">
-      <c r="D13" s="95">
+      <c r="D13" s="93">
         <v>1</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="95">
         <v>300</v>
       </c>
-      <c r="G13" s="133"/>
+      <c r="G13" s="125">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1">
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="134"/>
+      <c r="G15" s="126">
+        <f>SUM(G6:G14)</f>
+        <v>5370</v>
+      </c>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1">
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="135"/>
+      <c r="G16" s="127">
+        <f>G15*0.18</f>
+        <v>966.59999999999991</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="30" customHeight="1" thickBot="1">
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="136"/>
+      <c r="G17" s="128">
+        <f>SUM(G15:G16)</f>
+        <v>6336.6</v>
+      </c>
     </row>
     <row r="20" spans="2:13" ht="30" customHeight="1">
-      <c r="B20" s="218" t="s">
+      <c r="B20" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="94" t="s">
+      <c r="C20" s="211"/>
+      <c r="D20" s="92" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="7"/>
@@ -4570,358 +4545,589 @@
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1"/>
     <row r="22" spans="2:13" ht="30" customHeight="1">
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="30" customHeight="1">
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="F23" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="105">
+      <c r="G23" s="103">
         <v>10</v>
       </c>
-      <c r="H23" s="106">
+      <c r="H23" s="104">
         <v>80</v>
       </c>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138"/>
+      <c r="I23" s="129">
+        <f>H23*G23</f>
+        <v>800</v>
+      </c>
+      <c r="J23" s="129">
+        <f>I23*0.18</f>
+        <v>144</v>
+      </c>
+      <c r="K23" s="129">
+        <f>I23*0.025</f>
+        <v>20</v>
+      </c>
+      <c r="L23" s="129">
+        <f>I23*0.0145</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="M23" s="130">
+        <f>I23+J23-K23-L23</f>
+        <v>912.4</v>
+      </c>
     </row>
     <row r="24" spans="2:13" ht="30" customHeight="1">
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="108" t="s">
+      <c r="F24" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="109">
+      <c r="G24" s="107">
         <v>30</v>
       </c>
-      <c r="H24" s="110">
+      <c r="H24" s="108">
         <v>25</v>
       </c>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="138"/>
+      <c r="I24" s="129">
+        <f t="shared" ref="I24:I36" si="1">H24*G24</f>
+        <v>750</v>
+      </c>
+      <c r="J24" s="129">
+        <f t="shared" ref="J24:J36" si="2">I24*0.18</f>
+        <v>135</v>
+      </c>
+      <c r="K24" s="129">
+        <f t="shared" ref="K24:K36" si="3">I24*0.025</f>
+        <v>18.75</v>
+      </c>
+      <c r="L24" s="129">
+        <f t="shared" ref="L24:L36" si="4">I24*0.0145</f>
+        <v>10.875</v>
+      </c>
+      <c r="M24" s="130">
+        <f t="shared" ref="M24:M36" si="5">I24+J24-K24-L24</f>
+        <v>855.375</v>
+      </c>
     </row>
     <row r="25" spans="2:13" ht="30" customHeight="1">
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G25" s="103">
         <v>5</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="104">
         <v>55</v>
       </c>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="138"/>
+      <c r="I25" s="129">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J25" s="129">
+        <f t="shared" si="2"/>
+        <v>49.5</v>
+      </c>
+      <c r="K25" s="129">
+        <f t="shared" si="3"/>
+        <v>6.875</v>
+      </c>
+      <c r="L25" s="129">
+        <f t="shared" si="4"/>
+        <v>3.9875000000000003</v>
+      </c>
+      <c r="M25" s="130">
+        <f t="shared" si="5"/>
+        <v>313.63749999999999</v>
+      </c>
     </row>
     <row r="26" spans="2:13" ht="30" customHeight="1">
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="109">
+      <c r="G26" s="107">
         <v>20</v>
       </c>
-      <c r="H26" s="110">
+      <c r="H26" s="108">
         <v>550</v>
       </c>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="138"/>
+      <c r="I26" s="129">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="J26" s="129">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="K26" s="129">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="L26" s="129">
+        <f t="shared" si="4"/>
+        <v>159.5</v>
+      </c>
+      <c r="M26" s="130">
+        <f t="shared" si="5"/>
+        <v>12545.5</v>
+      </c>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1">
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="105">
+      <c r="G27" s="103">
         <v>10</v>
       </c>
-      <c r="H27" s="106">
+      <c r="H27" s="104">
         <v>120</v>
       </c>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
+      <c r="I27" s="129">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="J27" s="129">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="K27" s="129">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L27" s="129">
+        <f t="shared" si="4"/>
+        <v>17.400000000000002</v>
+      </c>
+      <c r="M27" s="130">
+        <f t="shared" si="5"/>
+        <v>1368.6</v>
+      </c>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1">
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="109">
+      <c r="G28" s="107">
         <v>6</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="108">
         <v>120</v>
       </c>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="138"/>
+      <c r="I28" s="129">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="J28" s="129">
+        <f t="shared" si="2"/>
+        <v>129.6</v>
+      </c>
+      <c r="K28" s="129">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L28" s="129">
+        <f t="shared" si="4"/>
+        <v>10.440000000000001</v>
+      </c>
+      <c r="M28" s="130">
+        <f t="shared" si="5"/>
+        <v>821.16</v>
+      </c>
     </row>
     <row r="29" spans="2:13" ht="30" customHeight="1">
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="105">
+      <c r="G29" s="103">
         <v>16</v>
       </c>
-      <c r="H29" s="106">
+      <c r="H29" s="104">
         <v>50</v>
       </c>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="138"/>
+      <c r="I29" s="129">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="J29" s="129">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="K29" s="129">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="L29" s="129">
+        <f t="shared" si="4"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="M29" s="130">
+        <f t="shared" si="5"/>
+        <v>912.4</v>
+      </c>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1">
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="108" t="s">
+      <c r="F30" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="109">
+      <c r="G30" s="107">
         <v>13</v>
       </c>
-      <c r="H30" s="110">
+      <c r="H30" s="108">
         <v>75</v>
       </c>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="138"/>
+      <c r="I30" s="129">
+        <f>H30*G30</f>
+        <v>975</v>
+      </c>
+      <c r="J30" s="129">
+        <f t="shared" si="2"/>
+        <v>175.5</v>
+      </c>
+      <c r="K30" s="129">
+        <f t="shared" si="3"/>
+        <v>24.375</v>
+      </c>
+      <c r="L30" s="129">
+        <f t="shared" si="4"/>
+        <v>14.137500000000001</v>
+      </c>
+      <c r="M30" s="130">
+        <f t="shared" si="5"/>
+        <v>1111.9875</v>
+      </c>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1">
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="104" t="s">
+      <c r="F31" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="105">
+      <c r="G31" s="103">
         <v>13</v>
       </c>
-      <c r="H31" s="106">
+      <c r="H31" s="104">
         <v>42</v>
       </c>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="138"/>
+      <c r="I31" s="129">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+      <c r="J31" s="129">
+        <f t="shared" si="2"/>
+        <v>98.28</v>
+      </c>
+      <c r="K31" s="129">
+        <f t="shared" si="3"/>
+        <v>13.65</v>
+      </c>
+      <c r="L31" s="129">
+        <f t="shared" si="4"/>
+        <v>7.9170000000000007</v>
+      </c>
+      <c r="M31" s="130">
+        <f t="shared" si="5"/>
+        <v>622.71299999999997</v>
+      </c>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1">
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="108" t="s">
+      <c r="F32" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="109">
+      <c r="G32" s="107">
         <v>10</v>
       </c>
-      <c r="H32" s="110">
+      <c r="H32" s="108">
         <v>200</v>
       </c>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="138"/>
+      <c r="I32" s="129">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="J32" s="129">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="K32" s="129">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L32" s="129">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="M32" s="130">
+        <f t="shared" si="5"/>
+        <v>2281</v>
+      </c>
     </row>
     <row r="33" spans="4:13" ht="30" customHeight="1">
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="105">
+      <c r="G33" s="103">
         <v>14</v>
       </c>
-      <c r="H33" s="106">
+      <c r="H33" s="104">
         <v>350</v>
       </c>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="138"/>
+      <c r="I33" s="129">
+        <f t="shared" si="1"/>
+        <v>4900</v>
+      </c>
+      <c r="J33" s="129">
+        <f t="shared" si="2"/>
+        <v>882</v>
+      </c>
+      <c r="K33" s="129">
+        <f t="shared" si="3"/>
+        <v>122.5</v>
+      </c>
+      <c r="L33" s="129">
+        <f t="shared" si="4"/>
+        <v>71.05</v>
+      </c>
+      <c r="M33" s="130">
+        <f t="shared" si="5"/>
+        <v>5588.45</v>
+      </c>
     </row>
     <row r="34" spans="4:13" ht="30" customHeight="1">
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="108" t="s">
+      <c r="E34" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="108" t="s">
+      <c r="F34" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="109">
+      <c r="G34" s="107">
         <v>12</v>
       </c>
-      <c r="H34" s="110">
+      <c r="H34" s="108">
         <v>180</v>
       </c>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="138"/>
+      <c r="I34" s="129">
+        <f>H34*G34</f>
+        <v>2160</v>
+      </c>
+      <c r="J34" s="129">
+        <f t="shared" si="2"/>
+        <v>388.8</v>
+      </c>
+      <c r="K34" s="129">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="L34" s="129">
+        <f t="shared" si="4"/>
+        <v>31.32</v>
+      </c>
+      <c r="M34" s="130">
+        <f t="shared" si="5"/>
+        <v>2463.48</v>
+      </c>
     </row>
     <row r="35" spans="4:13" ht="30" customHeight="1">
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="104" t="s">
+      <c r="F35" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="105">
+      <c r="G35" s="103">
         <v>3</v>
       </c>
-      <c r="H35" s="106">
+      <c r="H35" s="104">
         <v>100</v>
       </c>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="138"/>
+      <c r="I35" s="129">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="J35" s="129">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="K35" s="129">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="L35" s="129">
+        <f t="shared" si="4"/>
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="M35" s="130">
+        <f t="shared" si="5"/>
+        <v>342.15</v>
+      </c>
     </row>
     <row r="36" spans="4:13" ht="30" customHeight="1">
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="108" t="s">
+      <c r="E36" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="108" t="s">
+      <c r="F36" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="109">
+      <c r="G36" s="107">
         <v>2</v>
       </c>
-      <c r="H36" s="110">
+      <c r="H36" s="108">
         <v>600</v>
       </c>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="138"/>
+      <c r="I36" s="129">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="J36" s="129">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="K36" s="129">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L36" s="129">
+        <f t="shared" si="4"/>
+        <v>17.400000000000002</v>
+      </c>
+      <c r="M36" s="130">
+        <f t="shared" si="5"/>
+        <v>1368.6</v>
+      </c>
     </row>
     <row r="37" spans="4:13" ht="30" customHeight="1" thickBot="1">
-      <c r="D37" s="220"/>
-      <c r="E37" s="221"/>
-      <c r="F37" s="111" t="s">
+      <c r="D37" s="212"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="138"/>
+      <c r="G37" s="38">
+        <f t="shared" ref="G37:L37" si="6">SUM(G23:G36)</f>
+        <v>164</v>
+      </c>
+      <c r="H37" s="38">
+        <f t="shared" si="6"/>
+        <v>2547</v>
+      </c>
+      <c r="I37" s="129">
+        <f t="shared" si="6"/>
+        <v>27626</v>
+      </c>
+      <c r="J37" s="129">
+        <f t="shared" si="6"/>
+        <v>4972.68</v>
+      </c>
+      <c r="K37" s="129">
+        <f t="shared" si="6"/>
+        <v>690.65</v>
+      </c>
+      <c r="L37" s="129">
+        <f t="shared" si="6"/>
+        <v>400.577</v>
+      </c>
+      <c r="M37" s="130">
+        <f>SUM(M23:M36)</f>
+        <v>31507.453000000001</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -4945,8 +5151,8 @@
   </sheetPr>
   <dimension ref="B1:Q102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" topLeftCell="D73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4967,32 +5173,32 @@
     <col min="14" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="43" customFormat="1" ht="38.4" customHeight="1">
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="222" t="s">
+    <row r="1" spans="2:17" s="42" customFormat="1" ht="38.4" customHeight="1">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="222"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="2:17" ht="12.75" customHeight="1"/>
     <row r="3" spans="2:17" ht="30" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="30" t="s">
         <v>199</v>
       </c>
       <c r="E3" s="7"/>
@@ -5006,144 +5212,149 @@
     </row>
     <row r="4" spans="2:17" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="7" spans="2:17" ht="30" customHeight="1">
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="110" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D8" s="16"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="111"/>
     </row>
     <row r="9" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D9" s="48"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="114"/>
     </row>
     <row r="10" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D10" s="16"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="111"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1">
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="117">
         <v>1250</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="117">
         <v>3652</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="117">
         <v>1542</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="117">
         <v>1000</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D12" s="16"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1">
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
+      <c r="E13" s="187">
+        <f>E11*$E17</f>
+        <v>4625</v>
+      </c>
+      <c r="F13" s="187">
+        <f t="shared" ref="F13:G13" si="0">F11*$E17</f>
+        <v>13512.400000000001</v>
+      </c>
+      <c r="G13" s="187">
+        <f t="shared" si="0"/>
+        <v>5705.4000000000005</v>
+      </c>
+      <c r="H13" s="187">
+        <f>H11*$E17</f>
+        <v>3700</v>
+      </c>
     </row>
     <row r="14" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D14" s="17"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D16" s="17"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1">
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="121">
         <v>3.7</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D18" s="15"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D20" s="15"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1">
-      <c r="D21" s="15"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1">
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="219"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="211"/>
+      <c r="D22" s="30" t="s">
         <v>198</v>
       </c>
       <c r="E22" s="7"/>
@@ -5153,134 +5364,139 @@
     </row>
     <row r="23" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="24" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="26" spans="2:8" ht="30" customHeight="1">
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="112" t="s">
+      <c r="E26" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="112" t="s">
+      <c r="G26" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="112" t="s">
+      <c r="H26" s="110" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D27" s="60"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="126"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D28" s="61"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="127"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D29" s="60"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="126"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1">
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="128">
+      <c r="E30" s="122">
         <v>2698</v>
       </c>
-      <c r="F30" s="128">
+      <c r="F30" s="122">
         <v>589256</v>
       </c>
-      <c r="G30" s="128">
+      <c r="G30" s="122">
         <v>12855854</v>
       </c>
-      <c r="H30" s="128">
+      <c r="H30" s="122">
         <v>15256</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D31" s="60"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="124"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1">
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
+      <c r="E32" s="188">
+        <f>E30/$E36</f>
+        <v>729.18918918918916</v>
+      </c>
+      <c r="F32" s="188">
+        <f t="shared" ref="F32:G32" si="1">F30/$E36</f>
+        <v>159258.37837837837</v>
+      </c>
+      <c r="G32" s="188">
+        <f t="shared" si="1"/>
+        <v>3474555.1351351351</v>
+      </c>
+      <c r="H32" s="188">
+        <f>H30/$E36</f>
+        <v>4123.2432432432433</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D33" s="17"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D35" s="17"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1">
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="125">
+      <c r="E36" s="121">
         <v>3.7</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="9"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D37" s="15"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="40" spans="2:8" ht="30" customHeight="1"/>
     <row r="41" spans="2:8" ht="30" customHeight="1">
-      <c r="B41" s="218" t="s">
+      <c r="B41" s="210" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="219"/>
-      <c r="D41" s="31" t="s">
+      <c r="C41" s="211"/>
+      <c r="D41" s="30" t="s">
         <v>209</v>
       </c>
       <c r="E41" s="7"/>
@@ -5290,134 +5506,158 @@
     </row>
     <row r="42" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="43" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="45" spans="2:8" ht="30" customHeight="1">
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="112" t="s">
+      <c r="E45" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="112" t="s">
+      <c r="F45" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="112" t="s">
+      <c r="G45" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="112" t="s">
+      <c r="H45" s="110" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D46" s="60"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="126"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D47" s="61"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="127"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D48" s="60"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="126"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1">
-      <c r="D49" s="56" t="s">
+      <c r="D49" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="128">
+      <c r="E49" s="122">
         <v>1698</v>
       </c>
-      <c r="F49" s="128">
+      <c r="F49" s="122">
         <v>2563</v>
       </c>
-      <c r="G49" s="128">
+      <c r="G49" s="122">
         <v>7895</v>
       </c>
-      <c r="H49" s="128">
+      <c r="H49" s="122">
         <v>1249</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D50" s="60"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="124"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="120"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1">
-      <c r="D51" s="56" t="s">
+      <c r="D51" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="195"/>
+      <c r="E51" s="187">
+        <f>E49*$E57</f>
+        <v>258.43560000000002</v>
+      </c>
+      <c r="F51" s="187">
+        <f t="shared" ref="F51:H51" si="2">F49*$E57</f>
+        <v>390.08859999999999</v>
+      </c>
+      <c r="G51" s="187">
+        <f t="shared" si="2"/>
+        <v>1201.6189999999999</v>
+      </c>
+      <c r="H51" s="187">
+        <f t="shared" si="2"/>
+        <v>190.09780000000001</v>
+      </c>
     </row>
     <row r="52" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D52" s="62"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="129"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1">
-      <c r="D53" s="56" t="s">
+      <c r="D53" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="195"/>
-      <c r="F53" s="195"/>
-      <c r="G53" s="195"/>
-      <c r="H53" s="195"/>
+      <c r="E53" s="187">
+        <f>SUM(E49:E52)</f>
+        <v>1956.4356</v>
+      </c>
+      <c r="F53" s="187">
+        <f t="shared" ref="F53:H53" si="3">SUM(F49:F52)</f>
+        <v>2953.0886</v>
+      </c>
+      <c r="G53" s="187">
+        <f t="shared" si="3"/>
+        <v>9096.6190000000006</v>
+      </c>
+      <c r="H53" s="187">
+        <f t="shared" si="3"/>
+        <v>1439.0978</v>
+      </c>
     </row>
     <row r="54" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D54" s="15"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D55" s="54"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="47"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="57" spans="2:8" ht="30" customHeight="1">
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="130">
+      <c r="E57" s="123">
         <v>0.1522</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="59" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="62" spans="2:8" ht="30" customHeight="1">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="219"/>
-      <c r="D62" s="31" t="s">
+      <c r="C62" s="211"/>
+      <c r="D62" s="30" t="s">
         <v>200</v>
       </c>
       <c r="E62" s="7"/>
@@ -5427,141 +5667,153 @@
     </row>
     <row r="63" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="64" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="4:8" ht="2.1" customHeight="1"/>
     <row r="66" spans="4:8" ht="30" customHeight="1">
-      <c r="D66" s="56" t="s">
+      <c r="D66" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="112" t="s">
+      <c r="E66" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="F66" s="112" t="s">
+      <c r="F66" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="G66" s="112" t="s">
+      <c r="G66" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="H66" s="112" t="s">
+      <c r="H66" s="110" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="67" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D67" s="60"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="10"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D68" s="61"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="47"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="46"/>
     </row>
     <row r="69" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D69" s="60"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="10"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="4:8" ht="30" customHeight="1">
-      <c r="D70" s="56" t="s">
+      <c r="D70" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="128" t="s">
+      <c r="E70" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="128" t="s">
+      <c r="F70" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="G70" s="128" t="s">
+      <c r="G70" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="128" t="s">
+      <c r="H70" s="122" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="71" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D71" s="60"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="124"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="120"/>
     </row>
     <row r="72" spans="4:8" ht="30" customHeight="1">
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="E72" s="128">
+      <c r="E72" s="122">
         <v>320</v>
       </c>
-      <c r="F72" s="128">
+      <c r="F72" s="122">
         <v>120</v>
       </c>
-      <c r="G72" s="128">
+      <c r="G72" s="122">
         <v>50</v>
       </c>
-      <c r="H72" s="128">
+      <c r="H72" s="122">
         <v>670</v>
       </c>
     </row>
     <row r="73" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D73" s="62"/>
-      <c r="E73" s="131"/>
-      <c r="F73" s="131"/>
-      <c r="G73" s="131"/>
-      <c r="H73" s="132"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
     </row>
     <row r="74" spans="4:8" ht="30" customHeight="1">
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="E74" s="195"/>
-      <c r="F74" s="195"/>
-      <c r="G74" s="195"/>
-      <c r="H74" s="195"/>
+      <c r="E74" s="187">
+        <f>E72+E72*$E78</f>
+        <v>362.30399999999997</v>
+      </c>
+      <c r="F74" s="187">
+        <f t="shared" ref="F74:H74" si="4">F72+F72*$E78</f>
+        <v>135.864</v>
+      </c>
+      <c r="G74" s="187">
+        <f t="shared" si="4"/>
+        <v>56.61</v>
+      </c>
+      <c r="H74" s="187">
+        <f t="shared" si="4"/>
+        <v>758.57400000000007</v>
+      </c>
     </row>
     <row r="75" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D75" s="15"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
     </row>
     <row r="76" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D76" s="54"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="47"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="46"/>
     </row>
     <row r="77" spans="4:8" ht="2.1" customHeight="1"/>
     <row r="78" spans="4:8" ht="30" customHeight="1">
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="130">
+      <c r="E78" s="123">
         <v>0.13220000000000001</v>
       </c>
     </row>
     <row r="79" spans="4:8" ht="2.1" customHeight="1"/>
     <row r="80" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
     </row>
     <row r="81" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="82" spans="2:8" ht="30" customHeight="1"/>
     <row r="83" spans="2:8" ht="30" customHeight="1">
-      <c r="B83" s="218" t="s">
+      <c r="B83" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="219"/>
-      <c r="D83" s="31" t="s">
+      <c r="C83" s="211"/>
+      <c r="D83" s="30" t="s">
         <v>201</v>
       </c>
       <c r="E83" s="7"/>
@@ -5571,132 +5823,144 @@
     </row>
     <row r="84" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="85" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
     </row>
     <row r="86" spans="2:8" ht="2.1" customHeight="1"/>
     <row r="87" spans="2:8" ht="30" customHeight="1">
-      <c r="D87" s="46" t="s">
+      <c r="D87" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="58" t="s">
+      <c r="E87" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F87" s="58" t="s">
+      <c r="F87" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G87" s="58" t="s">
+      <c r="G87" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="H87" s="58" t="s">
+      <c r="H87" s="56" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D88" s="16"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="10"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D89" s="48"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="46"/>
     </row>
     <row r="90" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D90" s="16"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="10"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="2:8" ht="30" customHeight="1">
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="128" t="s">
+      <c r="E91" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="F91" s="128" t="s">
+      <c r="F91" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="G91" s="128" t="s">
+      <c r="G91" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="H91" s="128" t="s">
+      <c r="H91" s="122" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D92" s="16"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="123"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="124"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="119"/>
+      <c r="G92" s="119"/>
+      <c r="H92" s="120"/>
     </row>
     <row r="93" spans="2:8" ht="30" customHeight="1">
-      <c r="D93" s="46" t="s">
+      <c r="D93" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="E93" s="128">
+      <c r="E93" s="122">
         <v>230</v>
       </c>
-      <c r="F93" s="128">
+      <c r="F93" s="122">
         <v>66.989999999999995</v>
       </c>
-      <c r="G93" s="128">
+      <c r="G93" s="122">
         <v>220</v>
       </c>
-      <c r="H93" s="128">
+      <c r="H93" s="122">
         <v>560</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D94" s="17"/>
-      <c r="E94" s="124"/>
-      <c r="F94" s="124"/>
-      <c r="G94" s="124"/>
-      <c r="H94" s="129"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="120"/>
+      <c r="G94" s="120"/>
+      <c r="H94" s="120"/>
     </row>
     <row r="95" spans="2:8" ht="30" customHeight="1">
-      <c r="D95" s="46" t="s">
+      <c r="D95" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="E95" s="195"/>
-      <c r="F95" s="195"/>
-      <c r="G95" s="195"/>
-      <c r="H95" s="195"/>
+      <c r="E95" s="187">
+        <f>E93-E93*$E99</f>
+        <v>199.59399999999999</v>
+      </c>
+      <c r="F95" s="187">
+        <f t="shared" ref="F95:H95" si="5">F93-F93*$E99</f>
+        <v>58.133921999999998</v>
+      </c>
+      <c r="G95" s="187">
+        <f t="shared" si="5"/>
+        <v>190.916</v>
+      </c>
+      <c r="H95" s="187">
+        <f t="shared" si="5"/>
+        <v>485.96799999999996</v>
+      </c>
     </row>
     <row r="96" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D96" s="15"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
     </row>
     <row r="97" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D97" s="54"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="47"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="46"/>
     </row>
     <row r="98" spans="4:8" ht="2.1" customHeight="1"/>
     <row r="99" spans="4:8" ht="30" customHeight="1">
-      <c r="D99" s="57" t="s">
+      <c r="D99" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E99" s="130">
+      <c r="E99" s="123">
         <v>0.13220000000000001</v>
       </c>
     </row>
     <row r="100" spans="4:8" ht="2.1" customHeight="1"/>
     <row r="101" spans="4:8" ht="2.1" customHeight="1">
-      <c r="D101" s="63"/>
-      <c r="E101" s="63"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
     </row>
     <row r="102" spans="4:8" ht="2.1" customHeight="1"/>
   </sheetData>
@@ -5723,8 +5987,8 @@
   </sheetPr>
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:G58"/>
+    <sheetView showGridLines="0" topLeftCell="D46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5735,7 +5999,7 @@
     <col min="4" max="4" width="35.109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="31.33203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="15" style="6" customWidth="1"/>
@@ -5745,32 +6009,32 @@
     <col min="14" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="28" customFormat="1" ht="38.4" customHeight="1">
-      <c r="C1" s="29"/>
-      <c r="D1" s="222" t="s">
+    <row r="1" spans="2:17" s="27" customFormat="1" ht="38.4" customHeight="1">
+      <c r="C1" s="28"/>
+      <c r="D1" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="2:17" ht="12.75" customHeight="1"/>
     <row r="3" spans="2:17" ht="30" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="94" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="92" t="s">
         <v>203</v>
       </c>
       <c r="E3" s="7"/>
@@ -5786,10 +6050,10 @@
     <row r="5" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="6" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="7" spans="2:17" ht="30" customHeight="1">
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="197">
+      <c r="E7" s="189">
         <v>3.7</v>
       </c>
     </row>
@@ -5797,343 +6061,481 @@
     <row r="9" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="10" spans="2:17" ht="2.1" customHeight="1" thickBot="1"/>
     <row r="11" spans="2:17" ht="37.5" customHeight="1">
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="65" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1">
-      <c r="D12" s="139">
+      <c r="D12" s="131">
         <v>10025325642</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="140">
+      <c r="F12" s="132">
         <v>15963</v>
       </c>
-      <c r="G12" s="199"/>
-      <c r="H12" s="116"/>
+      <c r="G12" s="191">
+        <f>F12/E$7</f>
+        <v>4314.3243243243242</v>
+      </c>
+      <c r="H12" s="111"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1">
-      <c r="D13" s="139">
+      <c r="D13" s="131">
         <v>10025325643</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="140">
+      <c r="F13" s="132">
         <v>259314</v>
       </c>
-      <c r="G13" s="199"/>
-      <c r="H13" s="116"/>
+      <c r="G13" s="191">
+        <f t="shared" ref="G13:G21" si="0">F13/E$7</f>
+        <v>70084.864864864867</v>
+      </c>
+      <c r="H13" s="111"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1">
-      <c r="D14" s="139">
+      <c r="D14" s="131">
         <v>10025325644</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="132">
         <v>2563178</v>
       </c>
-      <c r="G14" s="199"/>
-      <c r="H14" s="116"/>
+      <c r="G14" s="191">
+        <f t="shared" si="0"/>
+        <v>692750.81081081077</v>
+      </c>
+      <c r="H14" s="111"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1">
-      <c r="D15" s="139">
+      <c r="D15" s="131">
         <v>10025325645</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="132">
         <v>652522</v>
       </c>
-      <c r="G15" s="199"/>
-      <c r="H15" s="116"/>
+      <c r="G15" s="191">
+        <f t="shared" si="0"/>
+        <v>176357.29729729728</v>
+      </c>
+      <c r="H15" s="111"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1">
-      <c r="D16" s="139">
+      <c r="D16" s="131">
         <v>10025325646</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="140">
+      <c r="F16" s="132">
         <v>932522</v>
       </c>
-      <c r="G16" s="199"/>
-      <c r="H16" s="116"/>
+      <c r="G16" s="191">
+        <f t="shared" si="0"/>
+        <v>252032.97297297296</v>
+      </c>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1">
-      <c r="D17" s="139">
+      <c r="D17" s="131">
         <v>10025325647</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="140">
+      <c r="F17" s="132">
         <v>25963</v>
       </c>
-      <c r="G17" s="199"/>
-      <c r="H17" s="116"/>
+      <c r="G17" s="191">
+        <f t="shared" si="0"/>
+        <v>7017.0270270270266</v>
+      </c>
+      <c r="H17" s="111"/>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1">
-      <c r="D18" s="139">
+      <c r="D18" s="131">
         <v>10025325648</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="140">
+      <c r="F18" s="132">
         <v>248569</v>
       </c>
-      <c r="G18" s="199"/>
-      <c r="H18" s="116"/>
+      <c r="G18" s="191">
+        <f t="shared" si="0"/>
+        <v>67180.810810810814</v>
+      </c>
+      <c r="H18" s="111"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1">
-      <c r="D19" s="139">
+      <c r="D19" s="131">
         <v>10025325649</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="140">
+      <c r="F19" s="132">
         <v>23154</v>
       </c>
-      <c r="G19" s="199"/>
-      <c r="H19" s="116"/>
+      <c r="G19" s="191">
+        <f t="shared" si="0"/>
+        <v>6257.8378378378375</v>
+      </c>
+      <c r="H19" s="111"/>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1">
-      <c r="D20" s="139">
+      <c r="D20" s="131">
         <v>10025325650</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="140">
+      <c r="F20" s="132">
         <v>36547</v>
       </c>
-      <c r="G20" s="199"/>
-      <c r="H20" s="116"/>
+      <c r="G20" s="191">
+        <f t="shared" si="0"/>
+        <v>9877.5675675675666</v>
+      </c>
+      <c r="H20" s="111"/>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" thickBot="1">
-      <c r="D21" s="141">
+      <c r="D21" s="133">
         <v>10025325651</v>
       </c>
-      <c r="E21" s="142" t="s">
+      <c r="E21" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="143">
+      <c r="F21" s="135">
         <v>65893</v>
       </c>
-      <c r="G21" s="199"/>
-      <c r="H21" s="116"/>
+      <c r="G21" s="191">
+        <f t="shared" si="0"/>
+        <v>17808.918918918916</v>
+      </c>
+      <c r="H21" s="111"/>
     </row>
     <row r="22" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
     </row>
     <row r="23" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
     </row>
     <row r="24" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1">
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
     </row>
     <row r="27" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
     </row>
     <row r="28" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1">
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="226"/>
-      <c r="D29" s="94" t="s">
+      <c r="C29" s="218"/>
+      <c r="D29" s="92" t="s">
         <v>204</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="116"/>
+      <c r="H29" s="111"/>
     </row>
     <row r="30" spans="2:8" ht="2.1" customHeight="1">
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickBot="1">
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1">
-      <c r="D32" s="144" t="s">
+      <c r="D32" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="145">
+      <c r="E32" s="137">
         <v>0.25590000000000002</v>
       </c>
-      <c r="F32" s="223" t="s">
+      <c r="F32" s="215" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="223"/>
-      <c r="H32" s="224"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="216"/>
     </row>
     <row r="33" spans="2:8" ht="38.25" customHeight="1">
-      <c r="D33" s="148" t="s">
+      <c r="D33" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="149" t="s">
+      <c r="E33" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="149" t="s">
+      <c r="F33" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="149" t="s">
+      <c r="G33" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="150" t="s">
+      <c r="H33" s="142" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1">
-      <c r="D34" s="146">
+      <c r="D34" s="138">
         <v>7000</v>
       </c>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="201"/>
+      <c r="E34" s="192">
+        <f>D34*E$32</f>
+        <v>1791.3000000000002</v>
+      </c>
+      <c r="F34" s="192">
+        <f>D34+E34</f>
+        <v>8791.2999999999993</v>
+      </c>
+      <c r="G34" s="192">
+        <f>F34*E$32</f>
+        <v>2249.6936700000001</v>
+      </c>
+      <c r="H34" s="193">
+        <f>F34+G34</f>
+        <v>11040.99367</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1">
-      <c r="D35" s="146">
+      <c r="D35" s="138">
         <v>6500</v>
       </c>
-      <c r="E35" s="200"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="201"/>
+      <c r="E35" s="192">
+        <f t="shared" ref="E35:E38" si="1">D35*E$32</f>
+        <v>1663.3500000000001</v>
+      </c>
+      <c r="F35" s="192">
+        <f t="shared" ref="F35:F42" si="2">D35+E35</f>
+        <v>8163.35</v>
+      </c>
+      <c r="G35" s="192">
+        <f t="shared" ref="G35:G42" si="3">F35*E$32</f>
+        <v>2089.0012650000003</v>
+      </c>
+      <c r="H35" s="193">
+        <f t="shared" ref="H35:H42" si="4">F35+G35</f>
+        <v>10252.351265000001</v>
+      </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1">
-      <c r="D36" s="146">
+      <c r="D36" s="138">
         <v>8000</v>
       </c>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="201"/>
+      <c r="E36" s="192">
+        <f>D36*E$32</f>
+        <v>2047.2</v>
+      </c>
+      <c r="F36" s="192">
+        <f t="shared" si="2"/>
+        <v>10047.200000000001</v>
+      </c>
+      <c r="G36" s="192">
+        <f t="shared" si="3"/>
+        <v>2571.0784800000001</v>
+      </c>
+      <c r="H36" s="193">
+        <f t="shared" si="4"/>
+        <v>12618.278480000001</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1">
-      <c r="D37" s="146">
+      <c r="D37" s="138">
         <v>5500</v>
       </c>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="201"/>
+      <c r="E37" s="192">
+        <f t="shared" si="1"/>
+        <v>1407.45</v>
+      </c>
+      <c r="F37" s="192">
+        <f t="shared" si="2"/>
+        <v>6907.45</v>
+      </c>
+      <c r="G37" s="192">
+        <f t="shared" si="3"/>
+        <v>1767.6164550000001</v>
+      </c>
+      <c r="H37" s="193">
+        <f t="shared" si="4"/>
+        <v>8675.0664550000001</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1">
-      <c r="D38" s="146">
+      <c r="D38" s="138">
         <v>5000</v>
       </c>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="201"/>
+      <c r="E38" s="192">
+        <f t="shared" si="1"/>
+        <v>1279.5</v>
+      </c>
+      <c r="F38" s="192">
+        <f t="shared" si="2"/>
+        <v>6279.5</v>
+      </c>
+      <c r="G38" s="192">
+        <f t="shared" si="3"/>
+        <v>1606.9240500000001</v>
+      </c>
+      <c r="H38" s="193">
+        <f t="shared" si="4"/>
+        <v>7886.4240499999996</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1">
-      <c r="D39" s="146">
+      <c r="D39" s="138">
         <v>3500</v>
       </c>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="201"/>
+      <c r="E39" s="192">
+        <f t="shared" ref="E39:E42" si="5">D39*E$32</f>
+        <v>895.65000000000009</v>
+      </c>
+      <c r="F39" s="192">
+        <f t="shared" si="2"/>
+        <v>4395.6499999999996</v>
+      </c>
+      <c r="G39" s="192">
+        <f t="shared" si="3"/>
+        <v>1124.8468350000001</v>
+      </c>
+      <c r="H39" s="193">
+        <f t="shared" si="4"/>
+        <v>5520.4968349999999</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1">
-      <c r="D40" s="146">
+      <c r="D40" s="138">
         <v>7500</v>
       </c>
-      <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="201"/>
+      <c r="E40" s="192">
+        <f t="shared" si="5"/>
+        <v>1919.2500000000002</v>
+      </c>
+      <c r="F40" s="192">
+        <f t="shared" si="2"/>
+        <v>9419.25</v>
+      </c>
+      <c r="G40" s="192">
+        <f t="shared" si="3"/>
+        <v>2410.3860750000003</v>
+      </c>
+      <c r="H40" s="193">
+        <f t="shared" si="4"/>
+        <v>11829.636075</v>
+      </c>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1">
-      <c r="D41" s="146">
+      <c r="D41" s="138">
         <v>6000</v>
       </c>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="201"/>
+      <c r="E41" s="192">
+        <f t="shared" si="5"/>
+        <v>1535.4</v>
+      </c>
+      <c r="F41" s="192">
+        <f t="shared" si="2"/>
+        <v>7535.4</v>
+      </c>
+      <c r="G41" s="192">
+        <f t="shared" si="3"/>
+        <v>1928.3088600000001</v>
+      </c>
+      <c r="H41" s="193">
+        <f t="shared" si="4"/>
+        <v>9463.7088599999988</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="30" customHeight="1" thickBot="1">
-      <c r="D42" s="147">
+      <c r="D42" s="139">
         <v>5000</v>
       </c>
-      <c r="E42" s="200"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="201"/>
+      <c r="E42" s="192">
+        <f t="shared" si="5"/>
+        <v>1279.5</v>
+      </c>
+      <c r="F42" s="192">
+        <f t="shared" si="2"/>
+        <v>6279.5</v>
+      </c>
+      <c r="G42" s="192">
+        <f t="shared" si="3"/>
+        <v>1606.9240500000001</v>
+      </c>
+      <c r="H42" s="193">
+        <f t="shared" si="4"/>
+        <v>7886.4240499999996</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1"/>
     <row r="44" spans="2:8" ht="30" customHeight="1">
-      <c r="B44" s="218" t="s">
+      <c r="B44" s="210" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="219"/>
-      <c r="D44" s="94" t="s">
+      <c r="C44" s="211"/>
+      <c r="D44" s="92" t="s">
         <v>205</v>
       </c>
       <c r="E44" s="7"/>
@@ -6142,155 +6544,185 @@
     </row>
     <row r="45" spans="2:8" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="46" spans="2:8" ht="30" customHeight="1">
-      <c r="D46" s="156" t="s">
+      <c r="D46" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="157">
+      <c r="E46" s="149">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="F46" s="69"/>
-      <c r="G46" s="70"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="2:8" ht="3" customHeight="1">
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1">
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="76" t="s">
+      <c r="F48" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="77" t="s">
+      <c r="G48" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="4:8" ht="30" customHeight="1">
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="151">
+      <c r="E49" s="143">
         <v>12456</v>
       </c>
-      <c r="F49" s="151">
+      <c r="F49" s="143">
         <v>1500</v>
       </c>
-      <c r="G49" s="202"/>
-      <c r="H49" s="19"/>
+      <c r="G49" s="194">
+        <f>E$46*E49+F49</f>
+        <v>2208.7464</v>
+      </c>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="4:8" ht="30" customHeight="1">
-      <c r="D50" s="107" t="s">
+      <c r="D50" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="151">
+      <c r="E50" s="143">
         <v>23546</v>
       </c>
-      <c r="F50" s="151">
+      <c r="F50" s="143">
         <v>1250</v>
       </c>
-      <c r="G50" s="202"/>
+      <c r="G50" s="194">
+        <f t="shared" ref="G50:G58" si="6">E$46*E50+F50</f>
+        <v>2589.7673999999997</v>
+      </c>
     </row>
     <row r="51" spans="4:8" ht="30" customHeight="1">
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="144">
         <v>13689</v>
       </c>
-      <c r="F51" s="151">
+      <c r="F51" s="143">
         <v>1400</v>
       </c>
-      <c r="G51" s="202"/>
+      <c r="G51" s="194">
+        <f t="shared" si="6"/>
+        <v>2178.9040999999997</v>
+      </c>
     </row>
     <row r="52" spans="4:8" ht="30" customHeight="1">
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="151">
+      <c r="E52" s="143">
         <v>15342</v>
       </c>
-      <c r="F52" s="151">
+      <c r="F52" s="143">
         <v>1380</v>
       </c>
-      <c r="G52" s="202"/>
+      <c r="G52" s="194">
+        <f t="shared" si="6"/>
+        <v>2252.9598000000001</v>
+      </c>
     </row>
     <row r="53" spans="4:8" ht="30" customHeight="1">
-      <c r="D53" s="153" t="s">
+      <c r="D53" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="151">
+      <c r="E53" s="143">
         <v>16734</v>
       </c>
-      <c r="F53" s="151">
+      <c r="F53" s="143">
         <v>1435</v>
       </c>
-      <c r="G53" s="202"/>
+      <c r="G53" s="194">
+        <f t="shared" si="6"/>
+        <v>2387.1646000000001</v>
+      </c>
     </row>
     <row r="54" spans="4:8" ht="30" customHeight="1">
-      <c r="D54" s="153" t="s">
+      <c r="D54" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="151">
+      <c r="E54" s="143">
         <v>2546</v>
       </c>
-      <c r="F54" s="151">
+      <c r="F54" s="143">
         <v>1534</v>
       </c>
-      <c r="G54" s="202"/>
+      <c r="G54" s="194">
+        <f t="shared" si="6"/>
+        <v>1678.8674000000001</v>
+      </c>
     </row>
     <row r="55" spans="4:8" ht="30" customHeight="1">
-      <c r="D55" s="153" t="s">
+      <c r="D55" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="151">
+      <c r="E55" s="143">
         <v>3256</v>
       </c>
-      <c r="F55" s="151">
+      <c r="F55" s="143">
         <v>1258</v>
       </c>
-      <c r="G55" s="202"/>
+      <c r="G55" s="194">
+        <f t="shared" si="6"/>
+        <v>1443.2664</v>
+      </c>
     </row>
     <row r="56" spans="4:8" ht="30" customHeight="1">
-      <c r="D56" s="153" t="s">
+      <c r="D56" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="151">
+      <c r="E56" s="143">
         <v>3265</v>
       </c>
-      <c r="F56" s="151">
+      <c r="F56" s="143">
         <v>1365</v>
       </c>
-      <c r="G56" s="202"/>
+      <c r="G56" s="194">
+        <f t="shared" si="6"/>
+        <v>1550.7784999999999</v>
+      </c>
     </row>
     <row r="57" spans="4:8" ht="30" customHeight="1">
-      <c r="D57" s="153" t="s">
+      <c r="D57" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="151">
+      <c r="E57" s="143">
         <v>2589</v>
       </c>
-      <c r="F57" s="151">
+      <c r="F57" s="143">
         <v>1218</v>
       </c>
-      <c r="G57" s="202"/>
+      <c r="G57" s="194">
+        <f t="shared" si="6"/>
+        <v>1365.3141000000001</v>
+      </c>
     </row>
     <row r="58" spans="4:8" ht="30" customHeight="1" thickBot="1">
-      <c r="D58" s="154" t="s">
+      <c r="D58" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="155">
+      <c r="E58" s="147">
         <v>3257</v>
       </c>
-      <c r="F58" s="155">
+      <c r="F58" s="147">
         <v>1475</v>
       </c>
-      <c r="G58" s="202"/>
+      <c r="G58" s="194">
+        <f t="shared" si="6"/>
+        <v>1660.3233</v>
+      </c>
     </row>
     <row r="59" spans="4:8" ht="2.1" customHeight="1"/>
     <row r="60" spans="4:8" ht="30" customHeight="1"/>
@@ -6317,8 +6749,8 @@
   </sheetPr>
   <dimension ref="B1:Q91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51:L51"/>
+    <sheetView showGridLines="0" topLeftCell="E37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6331,40 +6763,40 @@
     <col min="6" max="6" width="20.109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" style="6" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="28" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="227" t="s">
+    <row r="1" spans="2:17" s="27" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="2:17" ht="12.75" customHeight="1"/>
     <row r="3" spans="2:17" ht="30" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="158" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="150" t="s">
         <v>155</v>
       </c>
       <c r="E3" s="7"/>
@@ -6380,272 +6812,428 @@
     <row r="5" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="6" spans="2:17" ht="2.1" customHeight="1" thickBot="1"/>
     <row r="7" spans="2:17" ht="30" customHeight="1">
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="230" t="s">
+      <c r="E7" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="230" t="s">
+      <c r="F7" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="241" t="s">
+      <c r="J7" s="233" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1">
-      <c r="D8" s="229"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="165">
+      <c r="D8" s="221"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="157">
         <v>0.02</v>
       </c>
-      <c r="H8" s="165">
+      <c r="H8" s="157">
         <v>0.03</v>
       </c>
-      <c r="I8" s="166">
+      <c r="I8" s="158">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J8" s="242"/>
+      <c r="J8" s="234"/>
     </row>
     <row r="9" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="2:17" ht="2.1" customHeight="1">
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1">
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="160">
+      <c r="E12" s="152">
         <v>25.36</v>
       </c>
-      <c r="F12" s="161">
+      <c r="F12" s="153">
         <v>256</v>
       </c>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="203"/>
+      <c r="G12" s="185">
+        <f>G$8*$E12*$F12</f>
+        <v>129.8432</v>
+      </c>
+      <c r="H12" s="185">
+        <f t="shared" ref="H12:I24" si="0">H$8*$E12*$F12</f>
+        <v>194.76479999999998</v>
+      </c>
+      <c r="I12" s="185">
+        <f>I$8*$E12*$F12</f>
+        <v>292.1472</v>
+      </c>
+      <c r="J12" s="195">
+        <f>SUM(G12:I12)</f>
+        <v>616.75519999999995</v>
+      </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1">
-      <c r="D13" s="159" t="s">
+      <c r="D13" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="160">
+      <c r="E13" s="152">
         <v>29.99</v>
       </c>
-      <c r="F13" s="161">
+      <c r="F13" s="153">
         <v>365</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="203"/>
+      <c r="G13" s="185">
+        <f t="shared" ref="G13:G24" si="1">G$8*$E13*$F13</f>
+        <v>218.92699999999999</v>
+      </c>
+      <c r="H13" s="185">
+        <f t="shared" si="0"/>
+        <v>328.39049999999997</v>
+      </c>
+      <c r="I13" s="185">
+        <f t="shared" si="0"/>
+        <v>492.5857499999999</v>
+      </c>
+      <c r="J13" s="195">
+        <f t="shared" ref="J13:J24" si="2">SUM(G13:I13)</f>
+        <v>1039.9032499999998</v>
+      </c>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1">
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="160">
+      <c r="E14" s="152">
         <v>36.25</v>
       </c>
-      <c r="F14" s="161">
+      <c r="F14" s="153">
         <v>248</v>
       </c>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="203"/>
+      <c r="G14" s="185">
+        <f t="shared" si="1"/>
+        <v>179.79999999999998</v>
+      </c>
+      <c r="H14" s="185">
+        <f t="shared" si="0"/>
+        <v>269.7</v>
+      </c>
+      <c r="I14" s="185">
+        <f t="shared" si="0"/>
+        <v>404.54999999999995</v>
+      </c>
+      <c r="J14" s="195">
+        <f t="shared" si="2"/>
+        <v>854.05</v>
+      </c>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1">
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="160">
+      <c r="E15" s="152">
         <v>36.14</v>
       </c>
-      <c r="F15" s="161">
+      <c r="F15" s="153">
         <v>269</v>
       </c>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="203"/>
+      <c r="G15" s="185">
+        <f t="shared" si="1"/>
+        <v>194.4332</v>
+      </c>
+      <c r="H15" s="185">
+        <f t="shared" si="0"/>
+        <v>291.64980000000003</v>
+      </c>
+      <c r="I15" s="185">
+        <f t="shared" si="0"/>
+        <v>437.47469999999998</v>
+      </c>
+      <c r="J15" s="195">
+        <f t="shared" si="2"/>
+        <v>923.55770000000007</v>
+      </c>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1">
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="160">
+      <c r="E16" s="152">
         <v>45.25</v>
       </c>
-      <c r="F16" s="161">
+      <c r="F16" s="153">
         <v>315</v>
       </c>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="203"/>
+      <c r="G16" s="185">
+        <f t="shared" si="1"/>
+        <v>285.07499999999999</v>
+      </c>
+      <c r="H16" s="185">
+        <f t="shared" si="0"/>
+        <v>427.61249999999995</v>
+      </c>
+      <c r="I16" s="185">
+        <f t="shared" si="0"/>
+        <v>641.41874999999993</v>
+      </c>
+      <c r="J16" s="195">
+        <f t="shared" si="2"/>
+        <v>1354.1062499999998</v>
+      </c>
     </row>
     <row r="17" spans="2:12" ht="30" customHeight="1">
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="160">
+      <c r="E17" s="152">
         <v>26.35</v>
       </c>
-      <c r="F17" s="161">
+      <c r="F17" s="153">
         <v>263</v>
       </c>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="203"/>
+      <c r="G17" s="185">
+        <f t="shared" si="1"/>
+        <v>138.601</v>
+      </c>
+      <c r="H17" s="185">
+        <f>H$8*$E17*$F17</f>
+        <v>207.9015</v>
+      </c>
+      <c r="I17" s="185">
+        <f t="shared" si="0"/>
+        <v>311.85225000000003</v>
+      </c>
+      <c r="J17" s="195">
+        <f>SUM(G17:I17)</f>
+        <v>658.35474999999997</v>
+      </c>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1">
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="160">
+      <c r="E18" s="152">
         <v>36.25</v>
       </c>
-      <c r="F18" s="161">
+      <c r="F18" s="153">
         <v>298</v>
       </c>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="203"/>
+      <c r="G18" s="185">
+        <f t="shared" si="1"/>
+        <v>216.04999999999998</v>
+      </c>
+      <c r="H18" s="185">
+        <f t="shared" si="0"/>
+        <v>324.07499999999999</v>
+      </c>
+      <c r="I18" s="185">
+        <f t="shared" si="0"/>
+        <v>486.11249999999995</v>
+      </c>
+      <c r="J18" s="195">
+        <f t="shared" si="2"/>
+        <v>1026.2375</v>
+      </c>
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1">
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="160">
+      <c r="E19" s="152">
         <v>45.33</v>
       </c>
-      <c r="F19" s="161">
+      <c r="F19" s="153">
         <v>364</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="203"/>
+      <c r="G19" s="185">
+        <f t="shared" si="1"/>
+        <v>330.00239999999997</v>
+      </c>
+      <c r="H19" s="185">
+        <f t="shared" si="0"/>
+        <v>495.00359999999995</v>
+      </c>
+      <c r="I19" s="185">
+        <f t="shared" si="0"/>
+        <v>742.50540000000001</v>
+      </c>
+      <c r="J19" s="195">
+        <f t="shared" si="2"/>
+        <v>1567.5113999999999</v>
+      </c>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1">
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="160">
+      <c r="E20" s="152">
         <v>89.99</v>
       </c>
-      <c r="F20" s="161">
+      <c r="F20" s="153">
         <v>589</v>
       </c>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="203"/>
+      <c r="G20" s="185">
+        <f t="shared" si="1"/>
+        <v>1060.0821999999998</v>
+      </c>
+      <c r="H20" s="185">
+        <f t="shared" si="0"/>
+        <v>1590.1232999999997</v>
+      </c>
+      <c r="I20" s="185">
+        <f t="shared" si="0"/>
+        <v>2385.1849499999998</v>
+      </c>
+      <c r="J20" s="195">
+        <f t="shared" si="2"/>
+        <v>5035.390449999999</v>
+      </c>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1">
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="160">
+      <c r="E21" s="152">
         <v>86.25</v>
       </c>
-      <c r="F21" s="161">
+      <c r="F21" s="153">
         <v>145</v>
       </c>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="203"/>
+      <c r="G21" s="185">
+        <f t="shared" si="1"/>
+        <v>250.125</v>
+      </c>
+      <c r="H21" s="185">
+        <f t="shared" si="0"/>
+        <v>375.1875</v>
+      </c>
+      <c r="I21" s="185">
+        <f t="shared" si="0"/>
+        <v>562.78125</v>
+      </c>
+      <c r="J21" s="195">
+        <f t="shared" si="2"/>
+        <v>1188.09375</v>
+      </c>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1">
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="152">
         <v>101.23</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="153">
         <v>899</v>
       </c>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="203"/>
+      <c r="G22" s="185">
+        <f t="shared" si="1"/>
+        <v>1820.1153999999999</v>
+      </c>
+      <c r="H22" s="185">
+        <f t="shared" si="0"/>
+        <v>2730.1731</v>
+      </c>
+      <c r="I22" s="185">
+        <f>I$8*$E22*$F22</f>
+        <v>4095.25965</v>
+      </c>
+      <c r="J22" s="195">
+        <f t="shared" si="2"/>
+        <v>8645.5481499999987</v>
+      </c>
     </row>
     <row r="23" spans="2:12" ht="30" customHeight="1">
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="160">
+      <c r="E23" s="152">
         <v>125.22</v>
       </c>
-      <c r="F23" s="161">
+      <c r="F23" s="153">
         <v>452</v>
       </c>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="203"/>
+      <c r="G23" s="185">
+        <f t="shared" si="1"/>
+        <v>1131.9888000000001</v>
+      </c>
+      <c r="H23" s="185">
+        <f t="shared" si="0"/>
+        <v>1697.9831999999999</v>
+      </c>
+      <c r="I23" s="185">
+        <f t="shared" si="0"/>
+        <v>2546.9748</v>
+      </c>
+      <c r="J23" s="195">
+        <f t="shared" si="2"/>
+        <v>5376.9467999999997</v>
+      </c>
     </row>
     <row r="24" spans="2:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D24" s="162" t="s">
+      <c r="D24" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="163">
+      <c r="E24" s="155">
         <v>77.36</v>
       </c>
-      <c r="F24" s="164">
+      <c r="F24" s="156">
         <v>292</v>
       </c>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="203"/>
+      <c r="G24" s="185">
+        <f t="shared" si="1"/>
+        <v>451.78240000000005</v>
+      </c>
+      <c r="H24" s="185">
+        <f t="shared" si="0"/>
+        <v>677.67359999999996</v>
+      </c>
+      <c r="I24" s="185">
+        <f t="shared" si="0"/>
+        <v>1016.5104</v>
+      </c>
+      <c r="J24" s="195">
+        <f>SUM(G24:I24)</f>
+        <v>2145.9664000000002</v>
+      </c>
     </row>
     <row r="25" spans="2:12" ht="30" customHeight="1"/>
     <row r="26" spans="2:12" ht="30" customHeight="1">
-      <c r="B26" s="218" t="s">
+      <c r="B26" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="219"/>
-      <c r="D26" s="167" t="s">
+      <c r="C26" s="211"/>
+      <c r="D26" s="159" t="s">
         <v>206</v>
       </c>
       <c r="E26" s="7"/>
@@ -6654,333 +7242,606 @@
     </row>
     <row r="27" spans="2:12" ht="30" customHeight="1"/>
     <row r="28" spans="2:12" ht="30" customHeight="1">
-      <c r="D28" s="240" t="s">
+      <c r="D28" s="232" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="240"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="240"/>
-      <c r="K28" s="240"/>
-      <c r="L28" s="240"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="232"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="232"/>
     </row>
     <row r="29" spans="2:12" ht="30" customHeight="1">
-      <c r="D29" s="240" t="s">
+      <c r="D29" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="232"/>
+      <c r="G29" s="232"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
     </row>
     <row r="30" spans="2:12" ht="30" customHeight="1">
-      <c r="D30" s="232" t="s">
+      <c r="D30" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="234" t="s">
+      <c r="E30" s="226" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="243" t="s">
+      <c r="F30" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="243"/>
-      <c r="J30" s="234" t="s">
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="234" t="s">
+      <c r="K30" s="226" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="236" t="s">
+      <c r="L30" s="228" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="30" customHeight="1">
-      <c r="D31" s="233"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="87" t="s">
+      <c r="D31" s="225"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I31" s="87" t="s">
+      <c r="I31" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="244"/>
-      <c r="K31" s="235"/>
-      <c r="L31" s="237"/>
+      <c r="J31" s="236"/>
+      <c r="K31" s="227"/>
+      <c r="L31" s="229"/>
     </row>
     <row r="32" spans="2:12" ht="30" customHeight="1">
-      <c r="D32" s="233"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="88">
+      <c r="D32" s="225"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="86">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G32" s="88">
+      <c r="G32" s="86">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H32" s="88">
+      <c r="H32" s="86">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I32" s="88">
+      <c r="I32" s="86">
         <v>2.4E-2</v>
       </c>
-      <c r="J32" s="244"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="237"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="227"/>
+      <c r="L32" s="229"/>
     </row>
     <row r="33" spans="4:12" ht="2.1" customHeight="1">
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="80"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="4:12" ht="2.1" customHeight="1">
-      <c r="D34" s="84"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="84"/>
     </row>
     <row r="35" spans="4:12" ht="2.1" customHeight="1">
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="80"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
     </row>
     <row r="36" spans="4:12" ht="30" customHeight="1">
-      <c r="D36" s="168" t="s">
+      <c r="D36" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="169">
+      <c r="E36" s="161">
         <v>225</v>
       </c>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="205"/>
+      <c r="F36" s="186">
+        <f>F$32*$E36</f>
+        <v>5.625</v>
+      </c>
+      <c r="G36" s="186">
+        <f t="shared" ref="G36:I48" si="3">G$32*$E36</f>
+        <v>7.4250000000000007</v>
+      </c>
+      <c r="H36" s="186">
+        <f t="shared" si="3"/>
+        <v>6.3</v>
+      </c>
+      <c r="I36" s="186">
+        <f>I$32*$E36</f>
+        <v>5.4</v>
+      </c>
+      <c r="J36" s="186">
+        <f>SUM(F36:I36)</f>
+        <v>24.75</v>
+      </c>
+      <c r="K36" s="186">
+        <f>E36+F36</f>
+        <v>230.625</v>
+      </c>
+      <c r="L36" s="197">
+        <f>K36/K$51</f>
+        <v>0.13043478260869568</v>
+      </c>
     </row>
     <row r="37" spans="4:12" ht="30" customHeight="1">
-      <c r="D37" s="168" t="s">
+      <c r="D37" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="169">
+      <c r="E37" s="161">
         <v>199</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="205"/>
+      <c r="F37" s="186">
+        <f t="shared" ref="F37:F48" si="4">F$32*$E37</f>
+        <v>4.9750000000000005</v>
+      </c>
+      <c r="G37" s="186">
+        <f t="shared" si="3"/>
+        <v>6.5670000000000002</v>
+      </c>
+      <c r="H37" s="186">
+        <f t="shared" si="3"/>
+        <v>5.5720000000000001</v>
+      </c>
+      <c r="I37" s="186">
+        <f t="shared" si="3"/>
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="J37" s="186">
+        <f t="shared" ref="J37:J48" si="5">SUM(F37:I37)</f>
+        <v>21.89</v>
+      </c>
+      <c r="K37" s="186">
+        <f t="shared" ref="K37:K48" si="6">E37+F37</f>
+        <v>203.97499999999999</v>
+      </c>
+      <c r="L37" s="197">
+        <f t="shared" ref="L37:L48" si="7">K37/K$51</f>
+        <v>0.11536231884057974</v>
+      </c>
     </row>
     <row r="38" spans="4:12" ht="30" customHeight="1">
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="169">
+      <c r="E38" s="161">
         <v>175</v>
       </c>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194"/>
-      <c r="L38" s="205"/>
+      <c r="F38" s="186">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="G38" s="186">
+        <f t="shared" si="3"/>
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="H38" s="186">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I38" s="186">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="J38" s="186">
+        <f t="shared" si="5"/>
+        <v>19.25</v>
+      </c>
+      <c r="K38" s="186">
+        <f t="shared" si="6"/>
+        <v>179.375</v>
+      </c>
+      <c r="L38" s="197">
+        <f t="shared" si="7"/>
+        <v>0.10144927536231886</v>
+      </c>
     </row>
     <row r="39" spans="4:12" ht="30" customHeight="1">
-      <c r="D39" s="168" t="s">
+      <c r="D39" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="169">
+      <c r="E39" s="161">
         <v>166</v>
       </c>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="205"/>
+      <c r="F39" s="186">
+        <f t="shared" si="4"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G39" s="186">
+        <f t="shared" si="3"/>
+        <v>5.4780000000000006</v>
+      </c>
+      <c r="H39" s="186">
+        <f t="shared" si="3"/>
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="I39" s="186">
+        <f t="shared" si="3"/>
+        <v>3.984</v>
+      </c>
+      <c r="J39" s="186">
+        <f t="shared" si="5"/>
+        <v>18.259999999999998</v>
+      </c>
+      <c r="K39" s="186">
+        <f t="shared" si="6"/>
+        <v>170.15</v>
+      </c>
+      <c r="L39" s="197">
+        <f t="shared" si="7"/>
+        <v>9.6231884057971048E-2</v>
+      </c>
     </row>
     <row r="40" spans="4:12" ht="30" customHeight="1">
-      <c r="D40" s="168" t="s">
+      <c r="D40" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="169">
+      <c r="E40" s="161">
         <v>125</v>
       </c>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="194"/>
-      <c r="L40" s="205"/>
+      <c r="F40" s="186">
+        <f t="shared" si="4"/>
+        <v>3.125</v>
+      </c>
+      <c r="G40" s="186">
+        <f t="shared" si="3"/>
+        <v>4.125</v>
+      </c>
+      <c r="H40" s="186">
+        <f>H$32*$E40</f>
+        <v>3.5</v>
+      </c>
+      <c r="I40" s="186">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J40" s="186">
+        <f t="shared" si="5"/>
+        <v>13.75</v>
+      </c>
+      <c r="K40" s="186">
+        <f t="shared" si="6"/>
+        <v>128.125</v>
+      </c>
+      <c r="L40" s="197">
+        <f t="shared" si="7"/>
+        <v>7.2463768115942045E-2</v>
+      </c>
     </row>
     <row r="41" spans="4:12" ht="30" customHeight="1">
-      <c r="D41" s="168" t="s">
+      <c r="D41" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="169">
+      <c r="E41" s="161">
         <v>120</v>
       </c>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="205"/>
+      <c r="F41" s="186">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G41" s="186">
+        <f t="shared" si="3"/>
+        <v>3.96</v>
+      </c>
+      <c r="H41" s="186">
+        <f t="shared" si="3"/>
+        <v>3.36</v>
+      </c>
+      <c r="I41" s="186">
+        <f t="shared" si="3"/>
+        <v>2.88</v>
+      </c>
+      <c r="J41" s="186">
+        <f t="shared" si="5"/>
+        <v>13.2</v>
+      </c>
+      <c r="K41" s="186">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="L41" s="197">
+        <f t="shared" si="7"/>
+        <v>6.9565217391304363E-2</v>
+      </c>
     </row>
     <row r="42" spans="4:12" ht="30" customHeight="1">
-      <c r="D42" s="168" t="s">
+      <c r="D42" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="169">
+      <c r="E42" s="161">
         <v>119</v>
       </c>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="194"/>
-      <c r="L42" s="205"/>
+      <c r="F42" s="186">
+        <f t="shared" si="4"/>
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="G42" s="186">
+        <f t="shared" si="3"/>
+        <v>3.927</v>
+      </c>
+      <c r="H42" s="186">
+        <f t="shared" si="3"/>
+        <v>3.3319999999999999</v>
+      </c>
+      <c r="I42" s="186">
+        <f t="shared" si="3"/>
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="J42" s="186">
+        <f t="shared" si="5"/>
+        <v>13.09</v>
+      </c>
+      <c r="K42" s="186">
+        <f t="shared" si="6"/>
+        <v>121.97499999999999</v>
+      </c>
+      <c r="L42" s="197">
+        <f t="shared" si="7"/>
+        <v>6.8985507246376823E-2</v>
+      </c>
     </row>
     <row r="43" spans="4:12" ht="30" customHeight="1">
-      <c r="D43" s="168" t="s">
+      <c r="D43" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="169">
+      <c r="E43" s="161">
         <v>115</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
-      <c r="L43" s="205"/>
+      <c r="F43" s="186">
+        <f t="shared" si="4"/>
+        <v>2.875</v>
+      </c>
+      <c r="G43" s="186">
+        <f t="shared" si="3"/>
+        <v>3.7950000000000004</v>
+      </c>
+      <c r="H43" s="186">
+        <f t="shared" si="3"/>
+        <v>3.22</v>
+      </c>
+      <c r="I43" s="186">
+        <f t="shared" si="3"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="J43" s="186">
+        <f t="shared" si="5"/>
+        <v>12.65</v>
+      </c>
+      <c r="K43" s="186">
+        <f t="shared" si="6"/>
+        <v>117.875</v>
+      </c>
+      <c r="L43" s="197">
+        <f t="shared" si="7"/>
+        <v>6.666666666666668E-2</v>
+      </c>
     </row>
     <row r="44" spans="4:12" ht="30" customHeight="1">
-      <c r="D44" s="168" t="s">
+      <c r="D44" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="169">
+      <c r="E44" s="161">
         <v>109</v>
       </c>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="205"/>
+      <c r="F44" s="186">
+        <f t="shared" si="4"/>
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="G44" s="186">
+        <f t="shared" si="3"/>
+        <v>3.597</v>
+      </c>
+      <c r="H44" s="186">
+        <f t="shared" si="3"/>
+        <v>3.052</v>
+      </c>
+      <c r="I44" s="186">
+        <f t="shared" si="3"/>
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="J44" s="186">
+        <f t="shared" si="5"/>
+        <v>11.99</v>
+      </c>
+      <c r="K44" s="186">
+        <f t="shared" si="6"/>
+        <v>111.72499999999999</v>
+      </c>
+      <c r="L44" s="197">
+        <f t="shared" si="7"/>
+        <v>6.3188405797101457E-2</v>
+      </c>
     </row>
     <row r="45" spans="4:12" ht="30" customHeight="1">
-      <c r="D45" s="168" t="s">
+      <c r="D45" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="169">
+      <c r="E45" s="161">
         <v>107</v>
       </c>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="194"/>
-      <c r="L45" s="205"/>
+      <c r="F45" s="186">
+        <f t="shared" si="4"/>
+        <v>2.6750000000000003</v>
+      </c>
+      <c r="G45" s="186">
+        <f t="shared" si="3"/>
+        <v>3.5310000000000001</v>
+      </c>
+      <c r="H45" s="186">
+        <f t="shared" si="3"/>
+        <v>2.996</v>
+      </c>
+      <c r="I45" s="186">
+        <f t="shared" si="3"/>
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="J45" s="186">
+        <f t="shared" si="5"/>
+        <v>11.77</v>
+      </c>
+      <c r="K45" s="186">
+        <f t="shared" si="6"/>
+        <v>109.675</v>
+      </c>
+      <c r="L45" s="197">
+        <f t="shared" si="7"/>
+        <v>6.2028985507246392E-2</v>
+      </c>
     </row>
     <row r="46" spans="4:12" ht="30" customHeight="1">
-      <c r="D46" s="168" t="s">
+      <c r="D46" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="169">
+      <c r="E46" s="161">
         <v>99</v>
       </c>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="194"/>
-      <c r="L46" s="205"/>
+      <c r="F46" s="186">
+        <f t="shared" si="4"/>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="G46" s="186">
+        <f t="shared" si="3"/>
+        <v>3.2670000000000003</v>
+      </c>
+      <c r="H46" s="186">
+        <f t="shared" si="3"/>
+        <v>2.7720000000000002</v>
+      </c>
+      <c r="I46" s="186">
+        <f t="shared" si="3"/>
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="J46" s="186">
+        <f t="shared" si="5"/>
+        <v>10.89</v>
+      </c>
+      <c r="K46" s="186">
+        <f t="shared" si="6"/>
+        <v>101.47499999999999</v>
+      </c>
+      <c r="L46" s="197">
+        <f t="shared" si="7"/>
+        <v>5.7391304347826098E-2</v>
+      </c>
     </row>
     <row r="47" spans="4:12" ht="30" customHeight="1">
-      <c r="D47" s="168" t="s">
+      <c r="D47" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="169">
+      <c r="E47" s="161">
         <v>89</v>
       </c>
-      <c r="F47" s="194"/>
-      <c r="G47" s="194"/>
-      <c r="H47" s="194"/>
-      <c r="I47" s="194"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="194"/>
-      <c r="L47" s="205"/>
+      <c r="F47" s="186">
+        <f t="shared" si="4"/>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="G47" s="186">
+        <f t="shared" si="3"/>
+        <v>2.9370000000000003</v>
+      </c>
+      <c r="H47" s="186">
+        <f t="shared" si="3"/>
+        <v>2.492</v>
+      </c>
+      <c r="I47" s="186">
+        <f t="shared" si="3"/>
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="J47" s="186">
+        <f t="shared" si="5"/>
+        <v>9.7900000000000009</v>
+      </c>
+      <c r="K47" s="186">
+        <f t="shared" si="6"/>
+        <v>91.224999999999994</v>
+      </c>
+      <c r="L47" s="197">
+        <f t="shared" si="7"/>
+        <v>5.1594202898550733E-2</v>
+      </c>
     </row>
     <row r="48" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D48" s="170" t="s">
+      <c r="D48" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="171">
+      <c r="E48" s="163">
         <v>77</v>
       </c>
-      <c r="F48" s="194"/>
-      <c r="G48" s="194"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="194"/>
-      <c r="L48" s="205"/>
+      <c r="F48" s="186">
+        <f t="shared" si="4"/>
+        <v>1.925</v>
+      </c>
+      <c r="G48" s="186">
+        <f t="shared" si="3"/>
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="H48" s="186">
+        <f t="shared" si="3"/>
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="I48" s="186">
+        <f t="shared" si="3"/>
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="J48" s="186">
+        <f t="shared" si="5"/>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="K48" s="186">
+        <f t="shared" si="6"/>
+        <v>78.924999999999997</v>
+      </c>
+      <c r="L48" s="197">
+        <f t="shared" si="7"/>
+        <v>4.4637681159420302E-2</v>
+      </c>
     </row>
     <row r="49" spans="4:12" ht="2.1" customHeight="1">
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="L49" s="23"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" spans="4:12" ht="2.1" customHeight="1" thickBot="1">
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="L50" s="23"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="L50" s="22"/>
     </row>
     <row r="51" spans="4:12" ht="30" customHeight="1" thickBot="1">
       <c r="D51" s="2"/>
@@ -6988,12 +7849,18 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="238" t="s">
+      <c r="I51" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="J51" s="239"/>
-      <c r="K51" s="204"/>
-      <c r="L51" s="206"/>
+      <c r="J51" s="231"/>
+      <c r="K51" s="196">
+        <f>SUM(K36:K50)</f>
+        <v>1768.1249999999995</v>
+      </c>
+      <c r="L51" s="198">
+        <f>SUM(L36:L50)</f>
+        <v>1.0000000000000004</v>
+      </c>
     </row>
     <row r="52" spans="4:12" ht="2.1" customHeight="1"/>
     <row r="53" spans="4:12" ht="2.1" customHeight="1"/>
@@ -7069,8 +7936,8 @@
   </sheetPr>
   <dimension ref="B1:Q122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7091,32 +7958,32 @@
     <col min="14" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="28" customFormat="1" ht="32.4" customHeight="1">
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="227" t="s">
+    <row r="1" spans="2:17" s="27" customFormat="1" ht="32.4" customHeight="1">
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="2:17" ht="12.75" customHeight="1"/>
     <row r="3" spans="2:17" ht="30" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="94" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="92" t="s">
         <v>210</v>
       </c>
       <c r="E3" s="7"/>
@@ -7132,25 +7999,25 @@
     <row r="5" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="6" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="7" spans="2:17" ht="30" customHeight="1">
-      <c r="D7" s="213" t="s">
+      <c r="D7" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1">
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="209" t="s">
+      <c r="E8" s="201" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1"/>
     <row r="10" spans="2:17" ht="30" customHeight="1">
-      <c r="E10" s="188" t="s">
+      <c r="E10" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="92" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="7"/>
@@ -7159,571 +8026,760 @@
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1"/>
     <row r="12" spans="2:17" ht="30" customHeight="1">
-      <c r="E12" s="189" t="s">
+      <c r="E12" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="174">
+      <c r="F12" s="166">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1">
-      <c r="E13" s="189" t="s">
+      <c r="E13" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="174">
+      <c r="F13" s="166">
         <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="12.75" customHeight="1"/>
     <row r="15" spans="2:17" ht="37.5" customHeight="1">
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="I15" s="68" t="s">
+      <c r="I15" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="66" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="2.1" customHeight="1"/>
     <row r="17" spans="5:10" ht="2.1" customHeight="1">
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="5:10" ht="2.1" customHeight="1"/>
     <row r="19" spans="5:10" ht="30" customHeight="1">
-      <c r="E19" s="175" t="s">
+      <c r="E19" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="176">
+      <c r="F19" s="168">
         <v>2563.9899999999998</v>
       </c>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
+      <c r="G19" s="199">
+        <f>$F19*$F$12</f>
+        <v>256.399</v>
+      </c>
+      <c r="H19" s="199">
+        <f>F19+G19</f>
+        <v>2820.3889999999997</v>
+      </c>
+      <c r="I19" s="199">
+        <f>H19*$F$13</f>
+        <v>507.67001999999991</v>
+      </c>
+      <c r="J19" s="200">
+        <f>H19+I19</f>
+        <v>3328.0590199999997</v>
+      </c>
     </row>
     <row r="20" spans="5:10" ht="30" customHeight="1">
-      <c r="E20" s="175" t="s">
+      <c r="E20" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="176">
+      <c r="F20" s="168">
         <v>1485.22</v>
       </c>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="208"/>
+      <c r="G20" s="199">
+        <f t="shared" ref="G20:H24" si="0">$F20*$F$12</f>
+        <v>148.52200000000002</v>
+      </c>
+      <c r="H20" s="199">
+        <f t="shared" ref="H20:H24" si="1">F20+G20</f>
+        <v>1633.742</v>
+      </c>
+      <c r="I20" s="199">
+        <f t="shared" ref="I20:I24" si="2">H20*$F$13</f>
+        <v>294.07355999999999</v>
+      </c>
+      <c r="J20" s="200">
+        <f t="shared" ref="J20:J24" si="3">H20+I20</f>
+        <v>1927.81556</v>
+      </c>
     </row>
     <row r="21" spans="5:10" ht="30" customHeight="1">
-      <c r="E21" s="175" t="s">
+      <c r="E21" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="176">
+      <c r="F21" s="168">
         <v>3258.88</v>
       </c>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
+      <c r="G21" s="199">
+        <f t="shared" si="0"/>
+        <v>325.88800000000003</v>
+      </c>
+      <c r="H21" s="199">
+        <f t="shared" si="1"/>
+        <v>3584.768</v>
+      </c>
+      <c r="I21" s="199">
+        <f t="shared" si="2"/>
+        <v>645.25824</v>
+      </c>
+      <c r="J21" s="200">
+        <f t="shared" si="3"/>
+        <v>4230.0262400000001</v>
+      </c>
     </row>
     <row r="22" spans="5:10" ht="30" customHeight="1">
-      <c r="E22" s="175" t="s">
+      <c r="E22" s="167" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="176">
+      <c r="F22" s="168">
         <v>2596.9899999999998</v>
       </c>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
+      <c r="G22" s="199">
+        <f t="shared" si="0"/>
+        <v>259.69900000000001</v>
+      </c>
+      <c r="H22" s="199">
+        <f t="shared" si="1"/>
+        <v>2856.6889999999999</v>
+      </c>
+      <c r="I22" s="199">
+        <f t="shared" si="2"/>
+        <v>514.2040199999999</v>
+      </c>
+      <c r="J22" s="200">
+        <f t="shared" si="3"/>
+        <v>3370.8930199999995</v>
+      </c>
     </row>
     <row r="23" spans="5:10" ht="30" customHeight="1">
-      <c r="E23" s="175" t="s">
+      <c r="E23" s="167" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="176">
+      <c r="F23" s="168">
         <v>1999.66</v>
       </c>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+      <c r="G23" s="199">
+        <f t="shared" si="0"/>
+        <v>199.96600000000001</v>
+      </c>
+      <c r="H23" s="199">
+        <f t="shared" si="1"/>
+        <v>2199.6260000000002</v>
+      </c>
+      <c r="I23" s="199">
+        <f t="shared" si="2"/>
+        <v>395.93268</v>
+      </c>
+      <c r="J23" s="200">
+        <f t="shared" si="3"/>
+        <v>2595.5586800000001</v>
+      </c>
     </row>
     <row r="24" spans="5:10" ht="30" customHeight="1">
-      <c r="E24" s="175" t="s">
+      <c r="E24" s="167" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="176">
+      <c r="F24" s="168">
         <v>1758.99</v>
       </c>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="G24" s="199">
+        <f t="shared" si="0"/>
+        <v>175.899</v>
+      </c>
+      <c r="H24" s="199">
+        <f t="shared" si="1"/>
+        <v>1934.8890000000001</v>
+      </c>
+      <c r="I24" s="199">
+        <f t="shared" si="2"/>
+        <v>348.28002000000004</v>
+      </c>
+      <c r="J24" s="200">
+        <f t="shared" si="3"/>
+        <v>2283.1690200000003</v>
+      </c>
     </row>
     <row r="25" spans="5:10" ht="2.1" customHeight="1">
-      <c r="E25" s="116"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="5:10" ht="2.1" customHeight="1">
-      <c r="E26" s="120"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="5:10" ht="2.1" customHeight="1">
-      <c r="E27" s="116"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="5:10" ht="30" customHeight="1">
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="214"/>
+      <c r="F28" s="206">
+        <f t="shared" ref="F28:J28" si="4">SUM(F19:F27)</f>
+        <v>13663.73</v>
+      </c>
+      <c r="G28" s="206">
+        <f t="shared" si="4"/>
+        <v>1366.373</v>
+      </c>
+      <c r="H28" s="206">
+        <f t="shared" si="4"/>
+        <v>15030.102999999999</v>
+      </c>
+      <c r="I28" s="206">
+        <f t="shared" si="4"/>
+        <v>2705.4185400000001</v>
+      </c>
+      <c r="J28" s="206">
+        <f t="shared" si="4"/>
+        <v>17735.521539999998</v>
+      </c>
     </row>
     <row r="29" spans="5:10" ht="2.1" customHeight="1"/>
     <row r="30" spans="5:10" ht="2.1" customHeight="1">
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="5:10" ht="2.1" customHeight="1"/>
     <row r="32" spans="5:10" ht="30" customHeight="1"/>
     <row r="33" spans="4:9" ht="30" customHeight="1">
-      <c r="D33" s="251" t="s">
+      <c r="D33" s="243" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="251"/>
+      <c r="E33" s="243"/>
     </row>
     <row r="34" spans="4:9" ht="30" customHeight="1">
-      <c r="D34" s="173" t="s">
+      <c r="D34" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="209" t="s">
+      <c r="E34" s="201" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="15" customHeight="1"/>
     <row r="36" spans="4:9" ht="46.2" customHeight="1">
-      <c r="E36" s="188" t="s">
+      <c r="E36" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="248" t="s">
+      <c r="F36" s="240" t="s">
         <v>207</v>
       </c>
-      <c r="G36" s="249"/>
-      <c r="H36" s="249"/>
-      <c r="I36" s="250"/>
+      <c r="G36" s="241"/>
+      <c r="H36" s="241"/>
+      <c r="I36" s="242"/>
     </row>
     <row r="37" spans="4:9" ht="16.5" customHeight="1"/>
     <row r="38" spans="4:9" ht="30" customHeight="1">
-      <c r="E38" s="192" t="s">
+      <c r="E38" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="174">
+      <c r="F38" s="166">
         <v>0.08</v>
       </c>
     </row>
     <row r="39" spans="4:9" ht="18.75" customHeight="1"/>
     <row r="40" spans="4:9" ht="30" customHeight="1">
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="91" t="s">
+      <c r="F40" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="91" t="s">
+      <c r="H40" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="91" t="s">
+      <c r="I40" s="89" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
     </row>
     <row r="42" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="43" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="44" spans="4:9" ht="30" customHeight="1">
-      <c r="E44" s="175" t="s">
+      <c r="E44" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="F44" s="176">
+      <c r="F44" s="168">
         <v>1999.99</v>
       </c>
-      <c r="G44" s="210"/>
-      <c r="H44" s="210"/>
-      <c r="I44" s="210"/>
+      <c r="G44" s="202">
+        <f>(1+$F$38)*F44</f>
+        <v>2159.9892</v>
+      </c>
+      <c r="H44" s="202">
+        <f>(1+$F$38)*G44</f>
+        <v>2332.7883360000001</v>
+      </c>
+      <c r="I44" s="202">
+        <f t="shared" ref="I44:I46" si="5">SUM(F44:H44)</f>
+        <v>6492.7675359999994</v>
+      </c>
     </row>
     <row r="45" spans="4:9" ht="30" customHeight="1">
-      <c r="E45" s="175" t="s">
+      <c r="E45" s="167" t="s">
         <v>179</v>
       </c>
-      <c r="F45" s="176">
+      <c r="F45" s="168">
         <v>269.14</v>
       </c>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="182"/>
+      <c r="G45" s="202">
+        <f t="shared" ref="G45:H45" si="6">(1+$F$38)*F45</f>
+        <v>290.6712</v>
+      </c>
+      <c r="H45" s="202">
+        <f t="shared" si="6"/>
+        <v>313.92489600000005</v>
+      </c>
+      <c r="I45" s="202">
+        <f>SUM(F45:H45)</f>
+        <v>873.73609600000009</v>
+      </c>
     </row>
     <row r="46" spans="4:9" ht="30" customHeight="1">
-      <c r="E46" s="175" t="s">
+      <c r="E46" s="167" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="176">
+      <c r="F46" s="168">
         <v>99.99</v>
       </c>
-      <c r="G46" s="210"/>
-      <c r="H46" s="210"/>
-      <c r="I46" s="182"/>
+      <c r="G46" s="202">
+        <f t="shared" ref="G46:H46" si="7">(1+$F$38)*F46</f>
+        <v>107.9892</v>
+      </c>
+      <c r="H46" s="202">
+        <f t="shared" si="7"/>
+        <v>116.628336</v>
+      </c>
+      <c r="I46" s="202">
+        <f t="shared" si="5"/>
+        <v>324.60753599999998</v>
+      </c>
     </row>
     <row r="47" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E47" s="183"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="178"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="170"/>
     </row>
     <row r="48" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E48" s="184"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="180"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
     </row>
     <row r="49" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E49" s="183"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
     </row>
     <row r="50" spans="4:9" ht="30" customHeight="1">
-      <c r="E50" s="172" t="s">
+      <c r="E50" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
+      <c r="F50" s="199">
+        <f t="shared" ref="F50:I50" si="8">SUM(F44:F49)</f>
+        <v>2369.12</v>
+      </c>
+      <c r="G50" s="199">
+        <f t="shared" si="8"/>
+        <v>2558.6495999999997</v>
+      </c>
+      <c r="H50" s="199">
+        <f t="shared" si="8"/>
+        <v>2763.3415680000003</v>
+      </c>
+      <c r="I50" s="199">
+        <f t="shared" si="8"/>
+        <v>7691.1111679999995</v>
+      </c>
     </row>
     <row r="51" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="52" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="54" spans="4:9" ht="30" customHeight="1"/>
     <row r="55" spans="4:9" ht="30" customHeight="1">
-      <c r="D55" s="251" t="s">
+      <c r="D55" s="243" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="251"/>
+      <c r="E55" s="243"/>
     </row>
     <row r="56" spans="4:9" ht="30" customHeight="1">
-      <c r="D56" s="173" t="s">
+      <c r="D56" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="209" t="s">
+      <c r="E56" s="201" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="57" spans="4:9" ht="30" customHeight="1"/>
     <row r="58" spans="4:9" ht="41.25" customHeight="1">
-      <c r="E58" s="190" t="s">
+      <c r="E58" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="248" t="s">
+      <c r="F58" s="240" t="s">
         <v>208</v>
       </c>
-      <c r="G58" s="249"/>
-      <c r="H58" s="249"/>
-      <c r="I58" s="250"/>
+      <c r="G58" s="241"/>
+      <c r="H58" s="241"/>
+      <c r="I58" s="242"/>
     </row>
     <row r="59" spans="4:9" ht="12" customHeight="1"/>
     <row r="60" spans="4:9" ht="30" customHeight="1">
-      <c r="E60" s="191" t="s">
+      <c r="E60" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="174">
+      <c r="F60" s="166">
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="4:9" ht="15" customHeight="1"/>
     <row r="62" spans="4:9" ht="30" customHeight="1">
-      <c r="E62" s="92" t="s">
+      <c r="E62" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="92" t="s">
+      <c r="F62" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="G62" s="92" t="s">
+      <c r="G62" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="H62" s="92" t="s">
+      <c r="H62" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I62" s="92" t="s">
+      <c r="I62" s="90" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="63" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="64" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
     </row>
     <row r="65" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="66" spans="4:9" ht="30" customHeight="1">
-      <c r="E66" s="175" t="s">
+      <c r="E66" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="F66" s="176">
+      <c r="F66" s="168">
         <v>1999.99</v>
       </c>
-      <c r="G66" s="210"/>
-      <c r="H66" s="210"/>
-      <c r="I66" s="210"/>
+      <c r="G66" s="202">
+        <f>(1-$F$60)*F66</f>
+        <v>1888.9905550000001</v>
+      </c>
+      <c r="H66" s="202">
+        <f t="shared" ref="H66:I66" si="9">(1-$F$60)*G66</f>
+        <v>1784.1515791975</v>
+      </c>
+      <c r="I66" s="202">
+        <f>SUM(F66:H66)</f>
+        <v>5673.1321341974999</v>
+      </c>
     </row>
     <row r="67" spans="4:9" ht="30" customHeight="1">
-      <c r="E67" s="175" t="s">
+      <c r="E67" s="167" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="176">
+      <c r="F67" s="168">
         <v>269.14</v>
       </c>
-      <c r="G67" s="210"/>
-      <c r="H67" s="210"/>
-      <c r="I67" s="210"/>
+      <c r="G67" s="202">
+        <f t="shared" ref="G67:I67" si="10">(1-$F$60)*F67</f>
+        <v>254.20273</v>
+      </c>
+      <c r="H67" s="202">
+        <f t="shared" si="10"/>
+        <v>240.094478485</v>
+      </c>
+      <c r="I67" s="202">
+        <f t="shared" ref="I66:I68" si="11">SUM(F67:H67)</f>
+        <v>763.43720848499993</v>
+      </c>
     </row>
     <row r="68" spans="4:9" ht="30" customHeight="1">
-      <c r="E68" s="175" t="s">
+      <c r="E68" s="167" t="s">
         <v>180</v>
       </c>
-      <c r="F68" s="176">
+      <c r="F68" s="168">
         <v>99.99</v>
       </c>
-      <c r="G68" s="210"/>
-      <c r="H68" s="210"/>
-      <c r="I68" s="210"/>
+      <c r="G68" s="202">
+        <f t="shared" ref="G68:I68" si="12">(1-$F$60)*F68</f>
+        <v>94.440554999999989</v>
+      </c>
+      <c r="H68" s="202">
+        <f t="shared" si="12"/>
+        <v>89.199104197499992</v>
+      </c>
+      <c r="I68" s="202">
+        <f t="shared" si="11"/>
+        <v>283.62965919749996</v>
+      </c>
     </row>
     <row r="69" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E69" s="183"/>
-      <c r="F69" s="179"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
+      <c r="E69" s="175"/>
+      <c r="F69" s="171"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
     </row>
     <row r="70" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E70" s="184"/>
-      <c r="F70" s="181"/>
-      <c r="G70" s="180"/>
-      <c r="H70" s="180"/>
-      <c r="I70" s="180"/>
+      <c r="E70" s="176"/>
+      <c r="F70" s="173"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="172"/>
     </row>
     <row r="71" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E71" s="183"/>
-      <c r="F71" s="179"/>
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="178"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="171"/>
+      <c r="G71" s="170"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="170"/>
     </row>
     <row r="72" spans="4:9" ht="30" customHeight="1">
-      <c r="E72" s="172" t="s">
+      <c r="E72" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="207"/>
-      <c r="G72" s="207"/>
-      <c r="H72" s="207"/>
-      <c r="I72" s="207"/>
+      <c r="F72" s="199">
+        <f t="shared" ref="F72:I72" si="13">SUM(F66:F71)</f>
+        <v>2369.12</v>
+      </c>
+      <c r="G72" s="199">
+        <f t="shared" si="13"/>
+        <v>2237.6338400000004</v>
+      </c>
+      <c r="H72" s="199">
+        <f>SUM(H66:H71)</f>
+        <v>2113.4451618800003</v>
+      </c>
+      <c r="I72" s="199">
+        <f>SUM(I66:I71)</f>
+        <v>6720.1990018799997</v>
+      </c>
     </row>
     <row r="73" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="74" spans="4:9" ht="2.1" customHeight="1">
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
     </row>
     <row r="75" spans="4:9" ht="2.1" customHeight="1"/>
     <row r="76" spans="4:9" ht="30" customHeight="1"/>
     <row r="77" spans="4:9" ht="30" customHeight="1">
-      <c r="D77" s="245" t="s">
+      <c r="D77" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="E77" s="246"/>
-      <c r="F77" s="247"/>
+      <c r="E77" s="238"/>
+      <c r="F77" s="239"/>
     </row>
     <row r="78" spans="4:9" ht="30" customHeight="1">
-      <c r="D78" s="173" t="s">
+      <c r="D78" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="E78" s="253" t="s">
+      <c r="E78" s="245" t="s">
         <v>194</v>
       </c>
-      <c r="F78" s="254"/>
+      <c r="F78" s="246"/>
     </row>
     <row r="79" spans="4:9" ht="30" customHeight="1"/>
     <row r="80" spans="4:9" ht="48.6" customHeight="1">
-      <c r="E80" s="188" t="s">
+      <c r="E80" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F80" s="248" t="s">
+      <c r="F80" s="240" t="s">
         <v>211</v>
       </c>
-      <c r="G80" s="249"/>
-      <c r="H80" s="249"/>
-      <c r="I80" s="250"/>
+      <c r="G80" s="241"/>
+      <c r="H80" s="241"/>
+      <c r="I80" s="242"/>
     </row>
     <row r="81" spans="5:7" ht="30" customHeight="1"/>
     <row r="82" spans="5:7" ht="30" customHeight="1">
-      <c r="E82" s="255" t="s">
+      <c r="E82" s="247" t="s">
         <v>184</v>
       </c>
-      <c r="F82" s="255"/>
-      <c r="G82" s="255"/>
+      <c r="F82" s="247"/>
+      <c r="G82" s="247"/>
     </row>
     <row r="83" spans="5:7" ht="33.6" customHeight="1">
-      <c r="E83" s="92" t="s">
+      <c r="E83" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="F83" s="92" t="s">
+      <c r="F83" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="G83" s="93" t="s">
+      <c r="G83" s="91" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="84" spans="5:7" ht="2.1" customHeight="1"/>
     <row r="85" spans="5:7" ht="2.1" customHeight="1">
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
     </row>
     <row r="86" spans="5:7" ht="2.1" customHeight="1"/>
     <row r="87" spans="5:7" ht="30" customHeight="1">
-      <c r="E87" s="185" t="s">
+      <c r="E87" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="F87" s="186">
+      <c r="F87" s="178">
         <v>896</v>
       </c>
-      <c r="G87" s="211"/>
+      <c r="G87" s="203">
+        <f>F87/$F$96</f>
+        <v>0.19385547382085677</v>
+      </c>
     </row>
     <row r="88" spans="5:7" ht="30" customHeight="1">
-      <c r="E88" s="185" t="s">
+      <c r="E88" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="F88" s="186">
+      <c r="F88" s="178">
         <v>823</v>
       </c>
-      <c r="G88" s="211"/>
+      <c r="G88" s="203">
+        <f t="shared" ref="G88:G92" si="14">F88/$F$96</f>
+        <v>0.17806144526179143</v>
+      </c>
     </row>
     <row r="89" spans="5:7" ht="30" customHeight="1">
-      <c r="E89" s="185" t="s">
+      <c r="E89" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="F89" s="186">
+      <c r="F89" s="178">
         <v>923</v>
       </c>
-      <c r="G89" s="211"/>
+      <c r="G89" s="203">
+        <f t="shared" si="14"/>
+        <v>0.19969710082215492</v>
+      </c>
     </row>
     <row r="90" spans="5:7" ht="30" customHeight="1">
-      <c r="E90" s="185" t="s">
+      <c r="E90" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="186">
+      <c r="F90" s="178">
         <v>725</v>
       </c>
-      <c r="G90" s="211"/>
+      <c r="G90" s="203">
+        <f t="shared" si="14"/>
+        <v>0.15685850281263522</v>
+      </c>
     </row>
     <row r="91" spans="5:7" ht="30" customHeight="1">
-      <c r="E91" s="185" t="s">
+      <c r="E91" s="177" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="186">
+      <c r="F91" s="178">
         <v>689</v>
       </c>
-      <c r="G91" s="211"/>
+      <c r="G91" s="203">
+        <f t="shared" si="14"/>
+        <v>0.14906966681090436</v>
+      </c>
     </row>
     <row r="92" spans="5:7" ht="30" customHeight="1">
-      <c r="E92" s="185" t="s">
+      <c r="E92" s="177" t="s">
         <v>193</v>
       </c>
-      <c r="F92" s="186">
+      <c r="F92" s="178">
         <v>566</v>
       </c>
-      <c r="G92" s="211"/>
+      <c r="G92" s="203">
+        <f t="shared" si="14"/>
+        <v>0.1224578104716573</v>
+      </c>
     </row>
     <row r="93" spans="5:7" ht="2.1" customHeight="1">
-      <c r="E93" s="116"/>
-      <c r="F93" s="116"/>
-      <c r="G93" s="211"/>
+      <c r="E93" s="111"/>
+      <c r="F93" s="111"/>
+      <c r="G93" s="203"/>
     </row>
     <row r="94" spans="5:7" ht="2.1" customHeight="1">
-      <c r="E94" s="120"/>
-      <c r="F94" s="120"/>
-      <c r="G94" s="211"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="203"/>
     </row>
     <row r="95" spans="5:7" ht="2.1" customHeight="1">
-      <c r="E95" s="116"/>
-      <c r="F95" s="116"/>
-      <c r="G95" s="211"/>
+      <c r="E95" s="111"/>
+      <c r="F95" s="111"/>
+      <c r="G95" s="203"/>
     </row>
     <row r="96" spans="5:7" ht="30" customHeight="1">
-      <c r="E96" s="187" t="s">
+      <c r="E96" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="212"/>
-      <c r="G96" s="211"/>
+      <c r="F96" s="204">
+        <f>SUM(F87:F95)</f>
+        <v>4622</v>
+      </c>
+      <c r="G96" s="203">
+        <f>SUM(G87:G95)</f>
+        <v>1.0000000000000002</v>
+      </c>
     </row>
     <row r="97" spans="7:7" ht="30" customHeight="1">
-      <c r="G97" s="24"/>
+      <c r="G97" s="23"/>
     </row>
     <row r="98" spans="7:7" ht="30" customHeight="1"/>
     <row r="99" spans="7:7" ht="30" customHeight="1"/>
@@ -7748,16 +8804,16 @@
     <row r="118" spans="4:5" ht="30" customHeight="1"/>
     <row r="119" spans="4:5" ht="30" customHeight="1"/>
     <row r="121" spans="4:5" ht="30" customHeight="1">
-      <c r="D121" s="256" t="s">
+      <c r="D121" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="E121" s="256"/>
+      <c r="E121" s="248"/>
     </row>
     <row r="122" spans="4:5" ht="30" customHeight="1">
-      <c r="D122" s="252" t="s">
+      <c r="D122" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="252"/>
+      <c r="E122" s="244"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
